--- a/WLAX_LETTERWINNER_DATA.xlsx
+++ b/WLAX_LETTERWINNER_DATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracerotondo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracerotondo/Documents/Gov1005/Milestone_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C2BB4D-564C-044E-A6A2-8C6E45FDF51B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{321B54F5-BAE6-4447-9EC0-31165CC9DEEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6920" yWindow="460" windowWidth="21500" windowHeight="16080" xr2:uid="{EA26E0FC-545C-F54D-9B10-F7662692507E}"/>
   </bookViews>
